--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119933.5406570532</v>
+        <v>113518.5061085506</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>403.157205094091</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>375.9790740437533</v>
       </c>
       <c r="E2" t="n">
         <v>424.2958575201043</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>94.13938596491204</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
         <v>93.17921052631581</v>
@@ -755,7 +755,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>21.03507684160947</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -867,13 +867,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -882,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.29113431688406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>240.2910377548343</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>376.273554789842</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
-        <v>128.8768572327041</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U6" t="n">
         <v>174.5731815300314</v>
       </c>
       <c r="V6" t="n">
-        <v>197.1263427586206</v>
+        <v>197.1263427586207</v>
       </c>
       <c r="W6" t="n">
         <v>183.4695267241379</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>52.75229854581384</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>215.6619813718265</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>395.6590476213831</v>
+        <v>220.7456919234772</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.0626366504658</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>418.0084460627161</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>108.6814417413742</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>240.8348570146258</v>
       </c>
       <c r="U13" t="n">
-        <v>275.615660591221</v>
+        <v>209.3571188347341</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>424.2958575201043</v>
+        <v>8.148089375045018</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.0346945768795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.9606135828359</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5221469772661</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>38.21796821522332</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>90.1560696662667</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>133.122498409159</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.57375468953282</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>174.5763152581388</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.615660591221</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1849,16 +1849,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.8455477352675</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>193.0460569743317</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>259.4777195073891</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>83.70817292458574</v>
       </c>
       <c r="H18" t="n">
-        <v>33.36921172341164</v>
+        <v>33.36921172341165</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>163.0205252574009</v>
+        <v>215.5852400482715</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6110326951373</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>193.92245266317</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>159.1746055359849</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>83.70817292458574</v>
       </c>
       <c r="H21" t="n">
-        <v>33.36921172341164</v>
+        <v>33.36921172341165</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>155.0761430438771</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.2453314124761</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>67.022241315385</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>240.4723384880691</v>
       </c>
       <c r="U22" t="n">
-        <v>262.4185863407257</v>
+        <v>275.6110326951373</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>180.7874790707526</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>316.7245238370354</v>
       </c>
     </row>
     <row r="24">
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>49.34995949258617</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>124.9554984777218</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
         <v>275.6027656317444</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>352.769306959703</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>139.4214382638856</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>30.83833652624708</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2727,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>49.34995949258661</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2803,13 +2803,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>123.0555438163707</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>109.5540470185019</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>151.7621624259123</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>72.5742247025962</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3043,7 +3043,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>275.1106372348594</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>49.34995949258661</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>160.7335122538386</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>109.5540470185023</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>194.7281928688467</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>91.97255329355141</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>124.9554984777219</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>176.1446634785941</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3514,10 +3514,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>118.1917635269038</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>131.6233193188799</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3723,10 +3723,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>154.4368869916655</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>401.5266111030793</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>143.0966970200902</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>49.34995949258661</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>378.7805097865408</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
@@ -4039,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>368.5724630577456</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T45" t="n">
         <v>124.8306395731037</v>
@@ -4137,13 +4137,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>114.2435844806795</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>62.49116477960703</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>869.7548429593813</v>
+        <v>1270.883859595509</v>
       </c>
       <c r="C2" t="n">
-        <v>462.52534286434</v>
+        <v>842.3021853327778</v>
       </c>
       <c r="D2" t="n">
         <v>462.52534286434</v>
@@ -4333,19 +4333,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375541</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4372,10 +4372,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>1278.040966659728</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y2" t="n">
-        <v>869.7548429593813</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929009</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295432</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4400,7 +4400,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4409,28 +4409,28 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8519551513676</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962708</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962708</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962708</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962708</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962708</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986077</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4445,16 +4445,16 @@
         <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.095283921369</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545634</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934433</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726641</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>299.3106718651768</v>
+        <v>957.542327540508</v>
       </c>
       <c r="C4" t="n">
-        <v>299.3106718651768</v>
+        <v>784.980616023733</v>
       </c>
       <c r="D4" t="n">
-        <v>299.3106718651768</v>
+        <v>619.1026232252557</v>
       </c>
       <c r="E4" t="n">
-        <v>299.3106718651768</v>
+        <v>449.3446194759929</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4488,25 +4488,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>270.6749755583172</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>688.8848573262782</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>1108.937756271181</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1528.990655216085</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4515,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.453161617349</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V4" t="n">
-        <v>864.4976534877799</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W4" t="n">
-        <v>592.4712490740715</v>
+        <v>957.542327540508</v>
       </c>
       <c r="X4" t="n">
-        <v>347.0794944074839</v>
+        <v>957.542327540508</v>
       </c>
       <c r="Y4" t="n">
-        <v>299.3106718651768</v>
+        <v>957.542327540508</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>890.8095618279922</v>
+        <v>891.5238064999317</v>
       </c>
       <c r="C5" t="n">
-        <v>462.2278875652606</v>
+        <v>462.9421322372</v>
       </c>
       <c r="D5" t="n">
-        <v>462.2278875652606</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E5" t="n">
-        <v>462.2278875652606</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F5" t="n">
         <v>34.36045797446834</v>
@@ -4567,25 +4567,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914148</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N5" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q5" t="n">
         <v>1528.02936532736</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>891.5238064999317</v>
       </c>
       <c r="W5" t="n">
-        <v>1697.183430080417</v>
+        <v>891.5238064999317</v>
       </c>
       <c r="X5" t="n">
-        <v>1317.1091323129</v>
+        <v>891.5238064999317</v>
       </c>
       <c r="Y5" t="n">
-        <v>1317.1091323129</v>
+        <v>891.5238064999317</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>437.0247332457074</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M6" t="n">
-        <v>437.0247332457074</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N6" t="n">
-        <v>437.0247332457074</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O6" t="n">
-        <v>857.0776321906105</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P6" t="n">
-        <v>1277.130531135514</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q6" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R6" t="n">
         <v>1697.183430080417</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.4087263891149</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="C7" t="n">
-        <v>380.4087263891149</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4087263891149</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H7" t="n">
         <v>33.94366860160834</v>
@@ -4725,22 +4725,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>269.2156081004968</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990303</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
         <v>1528.990655216085</v>
@@ -4758,19 +4758,19 @@
         <v>1429.886162364244</v>
       </c>
       <c r="U7" t="n">
-        <v>1376.601012317968</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V7" t="n">
-        <v>1089.645504188398</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W7" t="n">
-        <v>817.6190997746896</v>
+        <v>646.6572682637131</v>
       </c>
       <c r="X7" t="n">
-        <v>572.2273451081021</v>
+        <v>401.2655135971256</v>
       </c>
       <c r="Y7" t="n">
-        <v>572.2273451081021</v>
+        <v>173.8458429112338</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>462.9421322371999</v>
+        <v>891.5238064999317</v>
       </c>
       <c r="C8" t="n">
-        <v>34.36045797446834</v>
+        <v>891.5238064999317</v>
       </c>
       <c r="D8" t="n">
-        <v>34.36045797446834</v>
+        <v>462.9421322372</v>
       </c>
       <c r="E8" t="n">
         <v>34.36045797446834</v>
@@ -4807,19 +4807,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375541</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4834,22 +4834,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W8" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="X8" t="n">
-        <v>1297.527826422454</v>
+        <v>891.5238064999317</v>
       </c>
       <c r="Y8" t="n">
-        <v>889.2417027221077</v>
+        <v>891.5238064999317</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929011</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760966</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E9" t="n">
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4886,25 +4886,25 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986077</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R9" t="n">
         <v>1697.183430080417</v>
@@ -4919,16 +4919,16 @@
         <v>1327.21280185937</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.095283921369</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545634</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934434</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726642</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="10">
@@ -4965,19 +4965,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>270.6749755583172</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L10" t="n">
-        <v>688.8848573262782</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M10" t="n">
-        <v>1108.937756271181</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N10" t="n">
-        <v>1528.990655216085</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
         <v>1528.990655216085</v>
@@ -4986,28 +4986,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658872</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V10" t="n">
-        <v>885.915474782408</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703686995</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X10" t="n">
-        <v>368.497315702112</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y10" t="n">
-        <v>141.0776450162203</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>884.0418517911038</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="C11" t="n">
-        <v>884.0418517911038</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D11" t="n">
-        <v>461.8110981924006</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E11" t="n">
         <v>461.8110981924006</v>
@@ -5038,31 +5038,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I11" t="n">
-        <v>85.02847154687561</v>
+        <v>85.02847154687595</v>
       </c>
       <c r="J11" t="n">
-        <v>198.3915302050083</v>
+        <v>198.3915302050087</v>
       </c>
       <c r="K11" t="n">
-        <v>368.2933687921386</v>
+        <v>368.2933687921389</v>
       </c>
       <c r="L11" t="n">
-        <v>579.0716233077371</v>
+        <v>579.0716233077375</v>
       </c>
       <c r="M11" t="n">
-        <v>813.6030440780559</v>
+        <v>813.6030440780562</v>
       </c>
       <c r="N11" t="n">
         <v>1051.92942843149</v>
       </c>
       <c r="O11" t="n">
-        <v>1276.974275035834</v>
+        <v>1276.974275035835</v>
       </c>
       <c r="P11" t="n">
-        <v>1469.044845016102</v>
+        <v>1469.044845016103</v>
       </c>
       <c r="Q11" t="n">
-        <v>1613.281844096129</v>
+        <v>1613.28184409613</v>
       </c>
       <c r="R11" t="n">
         <v>1697.183430080417</v>
@@ -5080,13 +5080,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W11" t="n">
-        <v>1292.32797549145</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X11" t="n">
-        <v>1292.32797549145</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y11" t="n">
-        <v>884.0418517911038</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I12" t="n">
-        <v>84.61243668840937</v>
+        <v>84.0294895518189</v>
       </c>
       <c r="J12" t="n">
-        <v>152.130697810494</v>
+        <v>476.1060756401158</v>
       </c>
       <c r="K12" t="n">
-        <v>267.5301602185431</v>
+        <v>591.5055380481649</v>
       </c>
       <c r="L12" t="n">
-        <v>422.6989786043561</v>
+        <v>746.674356433978</v>
       </c>
       <c r="M12" t="n">
-        <v>603.7736708202618</v>
+        <v>927.7490486498837</v>
       </c>
       <c r="N12" t="n">
-        <v>789.6408713345598</v>
+        <v>1113.616249164182</v>
       </c>
       <c r="O12" t="n">
-        <v>959.6730477000824</v>
+        <v>1283.648425529704</v>
       </c>
       <c r="P12" t="n">
-        <v>1208.457897754228</v>
+        <v>1420.114237364499</v>
       </c>
       <c r="Q12" t="n">
-        <v>1628.510796699132</v>
+        <v>1511.338018604792</v>
       </c>
       <c r="R12" t="n">
         <v>1672.881462148471</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C13" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D13" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E13" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F13" t="n">
         <v>33.94366860160834</v>
@@ -5199,25 +5199,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>162.8821409933428</v>
+        <v>76.30245582865297</v>
       </c>
       <c r="K13" t="n">
-        <v>507.2490950837828</v>
+        <v>145.9109553479573</v>
       </c>
       <c r="L13" t="n">
-        <v>596.3240091008959</v>
+        <v>308.4452127213286</v>
       </c>
       <c r="M13" t="n">
-        <v>690.241016707419</v>
+        <v>728.4981116662319</v>
       </c>
       <c r="N13" t="n">
-        <v>781.9248877878925</v>
+        <v>1148.551010611135</v>
       </c>
       <c r="O13" t="n">
-        <v>1052.904240721364</v>
+        <v>1568.603909556039</v>
       </c>
       <c r="P13" t="n">
-        <v>1472.873691624791</v>
+        <v>1641.066466489124</v>
       </c>
       <c r="Q13" t="n">
         <v>1691.235784882888</v>
@@ -5229,22 +5229,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.915897742411</v>
+        <v>1453.915897742412</v>
       </c>
       <c r="U13" t="n">
-        <v>1175.516240579562</v>
+        <v>1242.444060535609</v>
       </c>
       <c r="V13" t="n">
-        <v>888.5607324499922</v>
+        <v>955.4885524060398</v>
       </c>
       <c r="W13" t="n">
-        <v>616.5343280362838</v>
+        <v>683.4621479923314</v>
       </c>
       <c r="X13" t="n">
-        <v>371.1425733696963</v>
+        <v>438.0703933257439</v>
       </c>
       <c r="Y13" t="n">
-        <v>143.7229026838045</v>
+        <v>210.6507226398521</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>891.1070171270717</v>
+        <v>442.2091069368856</v>
       </c>
       <c r="C14" t="n">
-        <v>462.52534286434</v>
+        <v>442.2091069368856</v>
       </c>
       <c r="D14" t="n">
-        <v>33.94366860160834</v>
+        <v>433.9787136287594</v>
       </c>
       <c r="E14" t="n">
-        <v>33.94366860160834</v>
+        <v>433.9787136287594</v>
       </c>
       <c r="F14" t="n">
-        <v>33.94366860160834</v>
+        <v>433.9787136287594</v>
       </c>
       <c r="G14" t="n">
         <v>33.94366860160834</v>
@@ -5278,16 +5278,16 @@
         <v>85.02847154687592</v>
       </c>
       <c r="J14" t="n">
-        <v>198.3915302050086</v>
+        <v>198.3915302050088</v>
       </c>
       <c r="K14" t="n">
-        <v>368.2933687921389</v>
+        <v>368.2933687921391</v>
       </c>
       <c r="L14" t="n">
-        <v>579.0716233077375</v>
+        <v>579.0716233077376</v>
       </c>
       <c r="M14" t="n">
-        <v>813.6030440780562</v>
+        <v>813.6030440780563</v>
       </c>
       <c r="N14" t="n">
         <v>1051.92942843149</v>
@@ -5308,22 +5308,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1483.081800198765</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1223.968520423748</v>
       </c>
       <c r="V14" t="n">
-        <v>1334.566480014244</v>
+        <v>861.3515703575749</v>
       </c>
       <c r="W14" t="n">
-        <v>929.7110254252771</v>
+        <v>861.3515703575749</v>
       </c>
       <c r="X14" t="n">
-        <v>891.1070171270717</v>
+        <v>442.2091069368856</v>
       </c>
       <c r="Y14" t="n">
-        <v>891.1070171270717</v>
+        <v>442.2091069368856</v>
       </c>
     </row>
     <row r="15">
@@ -5357,16 +5357,16 @@
         <v>84.61243668840937</v>
       </c>
       <c r="J15" t="n">
-        <v>476.1060756401158</v>
+        <v>241.9203772095105</v>
       </c>
       <c r="K15" t="n">
-        <v>591.5055380481649</v>
+        <v>357.3198396175597</v>
       </c>
       <c r="L15" t="n">
-        <v>746.674356433978</v>
+        <v>512.4886580033726</v>
       </c>
       <c r="M15" t="n">
-        <v>927.7490486498837</v>
+        <v>693.5633502192784</v>
       </c>
       <c r="N15" t="n">
         <v>1113.616249164182</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>210.6507226398521</v>
+        <v>665.39009218466</v>
       </c>
       <c r="C16" t="n">
-        <v>210.6507226398521</v>
+        <v>665.39009218466</v>
       </c>
       <c r="D16" t="n">
-        <v>210.6507226398521</v>
+        <v>499.5120993861827</v>
       </c>
       <c r="E16" t="n">
-        <v>210.6507226398521</v>
+        <v>329.75409563692</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>329.75409563692</v>
       </c>
       <c r="G16" t="n">
-        <v>33.94366860160834</v>
+        <v>238.687358600287</v>
       </c>
       <c r="H16" t="n">
-        <v>33.94366860160834</v>
+        <v>104.2201884900254</v>
       </c>
       <c r="I16" t="n">
         <v>33.94366860160834</v>
@@ -5439,22 +5439,22 @@
         <v>162.8821409933428</v>
       </c>
       <c r="K16" t="n">
-        <v>232.4906405126472</v>
+        <v>507.2490950837828</v>
       </c>
       <c r="L16" t="n">
-        <v>321.5655545297602</v>
+        <v>596.3240091008959</v>
       </c>
       <c r="M16" t="n">
-        <v>728.4981116662319</v>
+        <v>690.241016707419</v>
       </c>
       <c r="N16" t="n">
-        <v>1148.551010611135</v>
+        <v>781.9248877878925</v>
       </c>
       <c r="O16" t="n">
-        <v>1568.603909556039</v>
+        <v>1052.904240721364</v>
       </c>
       <c r="P16" t="n">
-        <v>1641.066466489124</v>
+        <v>1472.873691624791</v>
       </c>
       <c r="Q16" t="n">
         <v>1691.235784882888</v>
@@ -5466,22 +5466,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T16" t="n">
-        <v>1520.843717698459</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U16" t="n">
-        <v>1242.444060535609</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V16" t="n">
-        <v>955.4885524060398</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="W16" t="n">
-        <v>683.4621479923314</v>
+        <v>1138.201517537139</v>
       </c>
       <c r="X16" t="n">
-        <v>438.0703933257439</v>
+        <v>892.8097628705518</v>
       </c>
       <c r="Y16" t="n">
-        <v>210.6507226398521</v>
+        <v>665.39009218466</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>912.7558670688456</v>
+        <v>1310.464814696376</v>
       </c>
       <c r="C17" t="n">
-        <v>474.6133942522689</v>
+        <v>872.3223418797995</v>
       </c>
       <c r="D17" t="n">
-        <v>38.70360942671342</v>
+        <v>872.3223418797995</v>
       </c>
       <c r="E17" t="n">
-        <v>38.70360942671342</v>
+        <v>438.5475970380948</v>
       </c>
       <c r="F17" t="n">
-        <v>38.70360942671342</v>
+        <v>438.5475970380948</v>
       </c>
       <c r="G17" t="n">
-        <v>38.70360942671342</v>
+        <v>38.7036094267134</v>
       </c>
       <c r="H17" t="n">
-        <v>38.70360942671342</v>
+        <v>38.7036094267134</v>
       </c>
       <c r="I17" t="n">
-        <v>97.00757514711346</v>
+        <v>97.00757514711314</v>
       </c>
       <c r="J17" t="n">
-        <v>226.2636995360258</v>
+        <v>226.2636995360257</v>
       </c>
       <c r="K17" t="n">
-        <v>419.9851238013151</v>
+        <v>419.9851238013149</v>
       </c>
       <c r="L17" t="n">
-        <v>660.3136806225145</v>
+        <v>660.3136806225143</v>
       </c>
       <c r="M17" t="n">
-        <v>927.7255064415056</v>
+        <v>927.7255064415052</v>
       </c>
       <c r="N17" t="n">
         <v>1199.464335172704</v>
       </c>
       <c r="O17" t="n">
-        <v>1456.059605537598</v>
+        <v>1456.059605537597</v>
       </c>
       <c r="P17" t="n">
-        <v>1675.057732252643</v>
+        <v>1675.057732252642</v>
       </c>
       <c r="Q17" t="n">
-        <v>1839.516205014871</v>
+        <v>1839.51620501487</v>
       </c>
       <c r="R17" t="n">
-        <v>1935.180471335671</v>
+        <v>1935.18047133567</v>
       </c>
       <c r="S17" t="n">
-        <v>1935.180471335671</v>
+        <v>1935.18047133567</v>
       </c>
       <c r="T17" t="n">
-        <v>1935.180471335671</v>
+        <v>1935.18047133567</v>
       </c>
       <c r="U17" t="n">
-        <v>1935.180471335671</v>
+        <v>1935.18047133567</v>
       </c>
       <c r="V17" t="n">
-        <v>1935.180471335671</v>
+        <v>1572.563521269497</v>
       </c>
       <c r="W17" t="n">
-        <v>1740.184454189881</v>
+        <v>1572.563521269497</v>
       </c>
       <c r="X17" t="n">
-        <v>1321.041990769192</v>
+        <v>1572.563521269497</v>
       </c>
       <c r="Y17" t="n">
-        <v>912.7558670688456</v>
+        <v>1310.464814696376</v>
       </c>
     </row>
     <row r="18">
@@ -5585,34 +5585,34 @@
         <v>156.9635939196401</v>
       </c>
       <c r="G18" t="n">
-        <v>72.40988389480599</v>
+        <v>72.40988389480597</v>
       </c>
       <c r="H18" t="n">
-        <v>38.70360942671342</v>
+        <v>38.7036094267134</v>
       </c>
       <c r="I18" t="n">
-        <v>92.82191738660251</v>
+        <v>92.82191738660246</v>
       </c>
       <c r="J18" t="n">
-        <v>169.8059795795392</v>
+        <v>326.1028317025097</v>
       </c>
       <c r="K18" t="n">
-        <v>301.3840037082869</v>
+        <v>457.6808558312572</v>
       </c>
       <c r="L18" t="n">
-        <v>478.3068948861028</v>
+        <v>634.603747009073</v>
       </c>
       <c r="M18" t="n">
-        <v>684.7675639769508</v>
+        <v>841.0644160999208</v>
       </c>
       <c r="N18" t="n">
-        <v>896.6926326357388</v>
+        <v>1052.989484758709</v>
       </c>
       <c r="O18" t="n">
-        <v>1090.562667535708</v>
+        <v>1246.859519658678</v>
       </c>
       <c r="P18" t="n">
-        <v>1246.160462427129</v>
+        <v>1402.457314550098</v>
       </c>
       <c r="Q18" t="n">
         <v>1506.470319798844</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>546.9013174912286</v>
+        <v>215.4106634649572</v>
       </c>
       <c r="C19" t="n">
-        <v>374.3396059744535</v>
+        <v>215.4106634649572</v>
       </c>
       <c r="D19" t="n">
-        <v>208.4616131759762</v>
+        <v>215.4106634649572</v>
       </c>
       <c r="E19" t="n">
-        <v>38.70360942671342</v>
+        <v>215.4106634649572</v>
       </c>
       <c r="F19" t="n">
-        <v>38.70360942671342</v>
+        <v>38.7036094267134</v>
       </c>
       <c r="G19" t="n">
-        <v>38.70360942671342</v>
+        <v>38.7036094267134</v>
       </c>
       <c r="H19" t="n">
-        <v>38.70360942671342</v>
+        <v>38.7036094267134</v>
       </c>
       <c r="I19" t="n">
-        <v>38.70360942671342</v>
+        <v>38.7036094267134</v>
       </c>
       <c r="J19" t="n">
-        <v>87.00093604784514</v>
+        <v>87.00093604784509</v>
       </c>
       <c r="K19" t="n">
-        <v>166.3682800388524</v>
+        <v>166.3682800388523</v>
       </c>
       <c r="L19" t="n">
-        <v>348.7601528760562</v>
+        <v>267.9311551271881</v>
       </c>
       <c r="M19" t="n">
-        <v>827.7173195316348</v>
+        <v>375.0149667419719</v>
       </c>
       <c r="N19" t="n">
-        <v>1306.674486187213</v>
+        <v>790.9748173525387</v>
       </c>
       <c r="O19" t="n">
-        <v>1785.631652842792</v>
+        <v>1269.931984008117</v>
       </c>
       <c r="P19" t="n">
-        <v>1868.253182142976</v>
+        <v>1700.060407278643</v>
       </c>
       <c r="Q19" t="n">
-        <v>1925.456046423193</v>
+        <v>1925.456046423192</v>
       </c>
       <c r="R19" t="n">
-        <v>1935.180471335671</v>
+        <v>1935.18047133567</v>
       </c>
       <c r="S19" t="n">
-        <v>1935.180471335671</v>
+        <v>1935.18047133567</v>
       </c>
       <c r="T19" t="n">
-        <v>1770.513274105973</v>
+        <v>1717.417602600042</v>
       </c>
       <c r="U19" t="n">
-        <v>1770.513274105973</v>
+        <v>1439.022620079701</v>
       </c>
       <c r="V19" t="n">
-        <v>1483.557765976404</v>
+        <v>1152.067111950132</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.531361562695</v>
+        <v>880.0407075364235</v>
       </c>
       <c r="X19" t="n">
-        <v>966.1396068961076</v>
+        <v>634.648952869836</v>
       </c>
       <c r="Y19" t="n">
-        <v>738.7199362102158</v>
+        <v>407.2292821839443</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1774.398041501343</v>
+        <v>1100.594777150416</v>
       </c>
       <c r="C20" t="n">
-        <v>1336.255568684766</v>
+        <v>662.452304333839</v>
       </c>
       <c r="D20" t="n">
-        <v>900.3457838592105</v>
+        <v>662.452304333839</v>
       </c>
       <c r="E20" t="n">
         <v>466.5710390175057</v>
       </c>
       <c r="F20" t="n">
-        <v>38.70360942671342</v>
+        <v>38.7036094267134</v>
       </c>
       <c r="G20" t="n">
-        <v>38.70360942671342</v>
+        <v>38.7036094267134</v>
       </c>
       <c r="H20" t="n">
-        <v>38.70360942671342</v>
+        <v>38.7036094267134</v>
       </c>
       <c r="I20" t="n">
-        <v>97.00757514711337</v>
+        <v>97.00757514711293</v>
       </c>
       <c r="J20" t="n">
-        <v>226.2636995360257</v>
+        <v>226.2636995360252</v>
       </c>
       <c r="K20" t="n">
-        <v>419.985123801315</v>
+        <v>419.9851238013145</v>
       </c>
       <c r="L20" t="n">
-        <v>660.3136806225145</v>
+        <v>660.313680622514</v>
       </c>
       <c r="M20" t="n">
-        <v>927.7255064415057</v>
+        <v>927.7255064415049</v>
       </c>
       <c r="N20" t="n">
-        <v>1199.464335172705</v>
+        <v>1199.464335172704</v>
       </c>
       <c r="O20" t="n">
-        <v>1456.059605537598</v>
+        <v>1456.059605537597</v>
       </c>
       <c r="P20" t="n">
-        <v>1675.057732252643</v>
+        <v>1675.057732252642</v>
       </c>
       <c r="Q20" t="n">
-        <v>1839.516205014871</v>
+        <v>1839.51620501487</v>
       </c>
       <c r="R20" t="n">
-        <v>1935.180471335671</v>
+        <v>1935.18047133567</v>
       </c>
       <c r="S20" t="n">
-        <v>1935.180471335671</v>
+        <v>1935.18047133567</v>
       </c>
       <c r="T20" t="n">
-        <v>1935.180471335671</v>
+        <v>1935.18047133567</v>
       </c>
       <c r="U20" t="n">
-        <v>1774.398041501343</v>
+        <v>1935.18047133567</v>
       </c>
       <c r="V20" t="n">
-        <v>1774.398041501343</v>
+        <v>1935.18047133567</v>
       </c>
       <c r="W20" t="n">
-        <v>1774.398041501343</v>
+        <v>1935.18047133567</v>
       </c>
       <c r="X20" t="n">
-        <v>1774.398041501343</v>
+        <v>1935.18047133567</v>
       </c>
       <c r="Y20" t="n">
-        <v>1774.398041501343</v>
+        <v>1526.894347635323</v>
       </c>
     </row>
     <row r="21">
@@ -5822,34 +5822,34 @@
         <v>156.9635939196401</v>
       </c>
       <c r="G21" t="n">
-        <v>72.40988389480599</v>
+        <v>72.40988389480597</v>
       </c>
       <c r="H21" t="n">
-        <v>38.70360942671342</v>
+        <v>38.7036094267134</v>
       </c>
       <c r="I21" t="n">
-        <v>92.82191738660251</v>
+        <v>92.82191738660246</v>
       </c>
       <c r="J21" t="n">
-        <v>169.8059795795392</v>
+        <v>326.1028317025094</v>
       </c>
       <c r="K21" t="n">
-        <v>301.3840037082869</v>
+        <v>457.680855831257</v>
       </c>
       <c r="L21" t="n">
-        <v>478.3068948861028</v>
+        <v>634.6037470090729</v>
       </c>
       <c r="M21" t="n">
-        <v>684.7675639769508</v>
+        <v>841.0644160999208</v>
       </c>
       <c r="N21" t="n">
-        <v>896.6926326357388</v>
+        <v>1052.989484758709</v>
       </c>
       <c r="O21" t="n">
-        <v>1090.562667535708</v>
+        <v>1246.859519658678</v>
       </c>
       <c r="P21" t="n">
-        <v>1246.160462427129</v>
+        <v>1402.457314550098</v>
       </c>
       <c r="Q21" t="n">
         <v>1506.470319798844</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>203.5978835807297</v>
+        <v>609.510469597313</v>
       </c>
       <c r="C22" t="n">
-        <v>203.5978835807297</v>
+        <v>452.867900866124</v>
       </c>
       <c r="D22" t="n">
-        <v>203.5978835807297</v>
+        <v>452.867900866124</v>
       </c>
       <c r="E22" t="n">
-        <v>203.5978835807297</v>
+        <v>283.1098971168612</v>
       </c>
       <c r="F22" t="n">
-        <v>203.5978835807297</v>
+        <v>106.4028430786175</v>
       </c>
       <c r="G22" t="n">
-        <v>38.70360942671342</v>
+        <v>106.4028430786175</v>
       </c>
       <c r="H22" t="n">
-        <v>38.70360942671342</v>
+        <v>106.4028430786175</v>
       </c>
       <c r="I22" t="n">
-        <v>38.70360942671342</v>
+        <v>38.7036094267134</v>
       </c>
       <c r="J22" t="n">
-        <v>87.00093604784514</v>
+        <v>87.0009360478451</v>
       </c>
       <c r="K22" t="n">
-        <v>166.3682800388524</v>
+        <v>166.3682800388523</v>
       </c>
       <c r="L22" t="n">
-        <v>267.9311551271883</v>
+        <v>348.7601528760562</v>
       </c>
       <c r="M22" t="n">
-        <v>746.8883217827668</v>
+        <v>827.7173195316345</v>
       </c>
       <c r="N22" t="n">
-        <v>1138.481711322881</v>
+        <v>1306.674486187213</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.438877978459</v>
+        <v>1785.631652842791</v>
       </c>
       <c r="P22" t="n">
-        <v>1700.060407278644</v>
+        <v>1868.253182142976</v>
       </c>
       <c r="Q22" t="n">
-        <v>1925.456046423193</v>
+        <v>1925.456046423192</v>
       </c>
       <c r="R22" t="n">
-        <v>1935.180471335671</v>
+        <v>1935.18047133567</v>
       </c>
       <c r="S22" t="n">
-        <v>1935.180471335671</v>
+        <v>1935.18047133567</v>
       </c>
       <c r="T22" t="n">
-        <v>1692.27911932752</v>
+        <v>1692.279119327519</v>
       </c>
       <c r="U22" t="n">
-        <v>1427.209840195474</v>
+        <v>1413.884136807178</v>
       </c>
       <c r="V22" t="n">
-        <v>1140.254332065904</v>
+        <v>1126.928628677609</v>
       </c>
       <c r="W22" t="n">
-        <v>868.2279276521961</v>
+        <v>854.9022242639005</v>
       </c>
       <c r="X22" t="n">
-        <v>622.8361729856085</v>
+        <v>609.510469597313</v>
       </c>
       <c r="Y22" t="n">
-        <v>395.4165022997169</v>
+        <v>609.510469597313</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1154.573267142144</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C23" t="n">
-        <v>716.4307943255671</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D23" t="n">
-        <v>716.4307943255671</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E23" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F23" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J23" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K23" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T23" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U23" t="n">
-        <v>1925.476340908664</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V23" t="n">
-        <v>1562.85939084249</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="W23" t="n">
-        <v>1562.85939084249</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="X23" t="n">
-        <v>1562.85939084249</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="Y23" t="n">
-        <v>1154.573267142144</v>
+        <v>1781.3331245177</v>
       </c>
     </row>
     <row r="24">
@@ -6047,25 +6047,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>732.1113136517137</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C25" t="n">
-        <v>559.5496021349386</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D25" t="n">
-        <v>393.6716093364613</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="E25" t="n">
-        <v>223.9136055871985</v>
+        <v>273.7620495191038</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895474</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
         <v>106.1122152511379</v>
@@ -6165,7 +6165,7 @@
         <v>2173.32015736263</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6177,22 +6177,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T25" t="n">
-        <v>2234.109902217715</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U25" t="n">
-        <v>1955.723270266458</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V25" t="n">
-        <v>1668.767762136888</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W25" t="n">
-        <v>1396.74135772318</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X25" t="n">
-        <v>1151.349603056593</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.9299323707007</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1355.033554032792</v>
+        <v>673.2607362976736</v>
       </c>
       <c r="C26" t="n">
-        <v>916.8910812162151</v>
+        <v>673.2607362976736</v>
       </c>
       <c r="D26" t="n">
-        <v>480.9812963906596</v>
+        <v>673.2607362976736</v>
       </c>
       <c r="E26" t="n">
-        <v>47.20655154895474</v>
+        <v>673.2607362976736</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895474</v>
+        <v>673.2607362976736</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895474</v>
@@ -6256,22 +6256,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>2179.031472042448</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W26" t="n">
-        <v>1774.176017453481</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X26" t="n">
-        <v>1355.033554032792</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y26" t="n">
-        <v>1355.033554032792</v>
+        <v>673.2607362976736</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>616.081764785142</v>
+        <v>894.468396736399</v>
       </c>
       <c r="C28" t="n">
-        <v>443.520053268367</v>
+        <v>721.9066852196239</v>
       </c>
       <c r="D28" t="n">
-        <v>443.520053268367</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E28" t="n">
-        <v>273.7620495191042</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F28" t="n">
-        <v>97.05499548086041</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H28" t="n">
         <v>47.20655154895474</v>
@@ -6387,22 +6387,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>202.912315818696</v>
+        <v>320.0013704257355</v>
       </c>
       <c r="L28" t="n">
-        <v>744.992999204955</v>
+        <v>862.0820538119945</v>
       </c>
       <c r="M28" t="n">
-        <v>1329.17407462327</v>
+        <v>992.6864461505238</v>
       </c>
       <c r="N28" t="n">
-        <v>1898.931789584804</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O28" t="n">
-        <v>2016.697670932566</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P28" t="n">
-        <v>2117.466727110249</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6417,19 +6417,19 @@
         <v>2118.080353351143</v>
       </c>
       <c r="U28" t="n">
-        <v>1839.693721399886</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V28" t="n">
-        <v>1552.738213270317</v>
+        <v>1831.124845221574</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.711808856609</v>
+        <v>1559.098440807865</v>
       </c>
       <c r="X28" t="n">
-        <v>1035.320054190021</v>
+        <v>1313.706686141278</v>
       </c>
       <c r="Y28" t="n">
-        <v>807.9003835041292</v>
+        <v>1086.287015455386</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1893.561637177626</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="C29" t="n">
-        <v>1455.41916436105</v>
+        <v>1710.413853100273</v>
       </c>
       <c r="D29" t="n">
-        <v>1019.509379535494</v>
+        <v>1274.504068274717</v>
       </c>
       <c r="E29" t="n">
-        <v>585.7346346937893</v>
+        <v>840.7293234330123</v>
       </c>
       <c r="F29" t="n">
-        <v>157.867205102997</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
-        <v>157.867205102997</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
         <v>805.4408022867025</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T29" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U29" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V29" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W29" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="X29" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="Y29" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>896.8524940391952</v>
+        <v>927.5506608361497</v>
       </c>
       <c r="C31" t="n">
-        <v>724.2907825224202</v>
+        <v>754.9889493193747</v>
       </c>
       <c r="D31" t="n">
-        <v>558.4127897239429</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E31" t="n">
-        <v>388.6547859746801</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F31" t="n">
-        <v>211.9477319364363</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
         <v>47.20655154895474</v>
@@ -6624,13 +6624,13 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>477.6707703898317</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>1019.751453776091</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M31" t="n">
-        <v>1150.35584611462</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N31" t="n">
         <v>1288.378132818745</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T31" t="n">
-        <v>2207.032463886209</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U31" t="n">
-        <v>1928.645831934952</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V31" t="n">
-        <v>1641.690323805383</v>
+        <v>1864.207109321325</v>
       </c>
       <c r="W31" t="n">
-        <v>1369.663919391674</v>
+        <v>1592.180704907616</v>
       </c>
       <c r="X31" t="n">
-        <v>1124.272164725087</v>
+        <v>1346.788950241029</v>
       </c>
       <c r="Y31" t="n">
-        <v>896.8524940391952</v>
+        <v>1119.369279555137</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2060.790516184048</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C32" t="n">
-        <v>1622.648043367471</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D32" t="n">
-        <v>1186.738258541916</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E32" t="n">
-        <v>752.963513700211</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>325.0960841094188</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G32" t="n">
         <v>47.20655154895474</v>
@@ -6697,19 +6697,19 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001358</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435806</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228016</v>
+        <v>512.324927422802</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N32" t="n">
         <v>1463.013992431967</v>
@@ -6718,7 +6718,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6733,19 +6733,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2060.790516184048</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V32" t="n">
-        <v>2060.790516184048</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W32" t="n">
-        <v>2060.790516184048</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X32" t="n">
-        <v>2060.790516184048</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y32" t="n">
-        <v>2060.790516184048</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>616.081764785142</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C34" t="n">
-        <v>443.520053268367</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D34" t="n">
-        <v>443.520053268367</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E34" t="n">
-        <v>273.7620495191042</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F34" t="n">
-        <v>97.05499548086041</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G34" t="n">
         <v>47.20655154895474</v>
@@ -6858,25 +6858,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L34" t="n">
-        <v>481.9462364092378</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M34" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N34" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O34" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P34" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6891,19 +6891,19 @@
         <v>2118.080353351143</v>
       </c>
       <c r="U34" t="n">
-        <v>1839.693721399886</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V34" t="n">
-        <v>1552.738213270317</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W34" t="n">
-        <v>1280.711808856609</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X34" t="n">
-        <v>1035.320054190021</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y34" t="n">
-        <v>807.9003835041292</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>884.8517156860543</v>
+        <v>1893.561637177627</v>
       </c>
       <c r="C35" t="n">
-        <v>446.7092428694776</v>
+        <v>1455.41916436105</v>
       </c>
       <c r="D35" t="n">
-        <v>446.7092428694776</v>
+        <v>1019.509379535495</v>
       </c>
       <c r="E35" t="n">
-        <v>446.7092428694776</v>
+        <v>585.7346346937898</v>
       </c>
       <c r="F35" t="n">
-        <v>446.7092428694776</v>
+        <v>157.8672051029975</v>
       </c>
       <c r="G35" t="n">
         <v>47.20655154895475</v>
@@ -6937,19 +6937,19 @@
         <v>118.4065018001357</v>
       </c>
       <c r="J35" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K35" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867027</v>
+        <v>805.440802286703</v>
       </c>
       <c r="M35" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431968</v>
       </c>
       <c r="O35" t="n">
         <v>1775.96950697326</v>
@@ -6967,22 +6967,22 @@
         <v>2319.861207662535</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131647</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="U35" t="n">
-        <v>1849.019264653161</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="V35" t="n">
-        <v>1486.402314586987</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="W35" t="n">
-        <v>1081.546859998021</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="X35" t="n">
-        <v>884.8517156860543</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="Y35" t="n">
-        <v>884.8517156860543</v>
+        <v>2319.861207662535</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E36" t="n">
-        <v>930.5806015906853</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F36" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G36" t="n">
-        <v>762.8256627965038</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I36" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P36" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q36" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R36" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S36" t="n">
-        <v>2315.706546847472</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T36" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U36" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V36" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W36" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X36" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y36" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>888.1081691988509</v>
+        <v>858.3289888817358</v>
       </c>
       <c r="C37" t="n">
-        <v>715.5464576820758</v>
+        <v>685.7672773649607</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6684648835985</v>
+        <v>519.8892845664834</v>
       </c>
       <c r="E37" t="n">
-        <v>379.9104611343358</v>
+        <v>350.1312808172207</v>
       </c>
       <c r="F37" t="n">
-        <v>203.203407096092</v>
+        <v>173.4242267789769</v>
       </c>
       <c r="G37" t="n">
-        <v>110.3018381127067</v>
+        <v>173.4242267789769</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895475</v>
@@ -7101,19 +7101,19 @@
         <v>202.9123158186961</v>
       </c>
       <c r="L37" t="n">
-        <v>744.992999204955</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M37" t="n">
-        <v>1066.127311827554</v>
+        <v>910.964192855309</v>
       </c>
       <c r="N37" t="n">
-        <v>1635.885026789088</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.320157362631</v>
+        <v>2018.157038390387</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540314</v>
+        <v>2118.92609456807</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.85648477097</v>
@@ -7125,22 +7125,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>2118.080353351144</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U37" t="n">
-        <v>1839.693721399887</v>
+        <v>2081.94094549648</v>
       </c>
       <c r="V37" t="n">
-        <v>1552.738213270317</v>
+        <v>1794.985437366911</v>
       </c>
       <c r="W37" t="n">
-        <v>1552.738213270317</v>
+        <v>1522.959032953202</v>
       </c>
       <c r="X37" t="n">
-        <v>1307.34645860373</v>
+        <v>1277.567278286615</v>
       </c>
       <c r="Y37" t="n">
-        <v>1079.926787917838</v>
+        <v>1050.147607600723</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2182.403674944107</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C38" t="n">
-        <v>1744.26120212753</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D38" t="n">
-        <v>1308.351417301975</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E38" t="n">
-        <v>874.5766724602698</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F38" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435814</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228024</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M38" t="n">
         <v>1131.58869045549</v>
@@ -7195,31 +7195,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2200.475587938389</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447737</v>
+        <v>2200.475587938389</v>
       </c>
       <c r="V38" t="n">
-        <v>2360.327577447737</v>
+        <v>2200.475587938389</v>
       </c>
       <c r="W38" t="n">
-        <v>2360.327577447737</v>
+        <v>2200.475587938389</v>
       </c>
       <c r="X38" t="n">
-        <v>2360.327577447737</v>
+        <v>1781.3331245177</v>
       </c>
       <c r="Y38" t="n">
-        <v>2360.327577447737</v>
+        <v>1781.3331245177</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043086</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>717.0469809559645</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C40" t="n">
-        <v>717.0469809559645</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D40" t="n">
-        <v>717.0469809559645</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E40" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F40" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G40" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>202.9123158186961</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092382</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827553</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789087</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.320157362631</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q40" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360843</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X40" t="n">
-        <v>1136.285270360843</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.8655996749517</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>716.4307943255671</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C41" t="n">
-        <v>716.4307943255671</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D41" t="n">
-        <v>716.4307943255671</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E41" t="n">
-        <v>716.4307943255671</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J41" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
         <v>805.4408022867025</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>1889.485634438363</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V41" t="n">
-        <v>1526.86868437219</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W41" t="n">
-        <v>1122.013229783223</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X41" t="n">
-        <v>716.4307943255671</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y41" t="n">
-        <v>716.4307943255671</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="42">
@@ -7472,13 +7472,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
         <v>79.1492015823585</v>
@@ -7496,16 +7496,16 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M42" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P42" t="n">
         <v>1488.088567599445</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>699.0748969752688</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C43" t="n">
-        <v>699.0748969752688</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D43" t="n">
-        <v>533.1969041767915</v>
+        <v>443.520053268367</v>
       </c>
       <c r="E43" t="n">
-        <v>388.6547859746801</v>
+        <v>273.7620495191042</v>
       </c>
       <c r="F43" t="n">
-        <v>211.9477319364363</v>
+        <v>97.05499548086041</v>
       </c>
       <c r="G43" t="n">
         <v>47.20655154895474</v>
@@ -7569,25 +7569,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>688.1212571728194</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M43" t="n">
-        <v>1272.302332591134</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N43" t="n">
-        <v>1399.801244395024</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X43" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>890.8935156942559</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1154.573267142144</v>
+        <v>863.58787193262</v>
       </c>
       <c r="C44" t="n">
-        <v>716.4307943255671</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D44" t="n">
-        <v>716.4307943255671</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E44" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>1889.485634438363</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V44" t="n">
-        <v>1526.86868437219</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W44" t="n">
-        <v>1154.573267142144</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="X44" t="n">
-        <v>1154.573267142144</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="Y44" t="n">
-        <v>1154.573267142144</v>
+        <v>1289.887442417528</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235873</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
         <v>47.20655154895474</v>
@@ -7766,13 +7766,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>471.655226289377</v>
+        <v>858.3289888817353</v>
       </c>
       <c r="C46" t="n">
-        <v>356.2576662078826</v>
+        <v>685.7672773649603</v>
       </c>
       <c r="D46" t="n">
-        <v>356.2576662078826</v>
+        <v>519.889284566483</v>
       </c>
       <c r="E46" t="n">
-        <v>356.2576662078826</v>
+        <v>350.1312808172202</v>
       </c>
       <c r="F46" t="n">
-        <v>179.5506121696388</v>
+        <v>173.4242267789764</v>
       </c>
       <c r="G46" t="n">
-        <v>179.5506121696388</v>
+        <v>173.4242267789764</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
         <v>47.20655154895474</v>
@@ -7809,22 +7809,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>202.9123158186961</v>
+        <v>320.0013704257355</v>
       </c>
       <c r="L46" t="n">
-        <v>744.9929992049551</v>
+        <v>862.0820538119945</v>
       </c>
       <c r="M46" t="n">
-        <v>875.5973915434847</v>
+        <v>992.6864461505238</v>
       </c>
       <c r="N46" t="n">
-        <v>1445.355106505019</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O46" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855378</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.267182904121</v>
+        <v>2081.94094549648</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774552</v>
+        <v>1794.98543736691</v>
       </c>
       <c r="W46" t="n">
-        <v>1136.285270360843</v>
+        <v>1522.959032953202</v>
       </c>
       <c r="X46" t="n">
-        <v>890.8935156942559</v>
+        <v>1277.567278286614</v>
       </c>
       <c r="Y46" t="n">
-        <v>663.4738450083642</v>
+        <v>1050.147607600722</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.289898879841</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201042</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8057,13 +8057,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>151.6683048404232</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
@@ -8151,13 +8151,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798408</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>407.1525905495949</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,25 +8373,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>237.6484237362509</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8455,10 +8455,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.289898879841</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201042</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8534,22 +8534,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L9" t="n">
-        <v>358.9284720888812</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8613,22 +8613,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>151.6683048404232</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>223.4729892007681</v>
+      </c>
+      <c r="N10" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N10" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>25.73810709481528</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>113.4535739589405</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.1506239440509</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>74.20135692551338</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>329.430193271091</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>331.6858867317474</v>
       </c>
       <c r="O13" t="n">
-        <v>188.1762207334395</v>
+        <v>338.7555601389261</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.2478563935574</v>
+        <v>90.6966458575925</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>236.551210535965</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>316.1773227575238</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>331.6858867317472</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>338.7555601389261</v>
+        <v>188.1762207334397</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>157.8756082050207</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>157.8756082050197</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9327,22 +9327,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>81.64545227158379</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>375.6296515563583</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>378.2015845827341</v>
+        <v>314.5679320120152</v>
       </c>
       <c r="O19" t="n">
-        <v>386.2623990678389</v>
+        <v>386.2623990678388</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>157.8756082050205</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>157.8756082050197</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9564,22 +9564,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>81.64545227158391</v>
       </c>
       <c r="M22" t="n">
-        <v>375.6296515563582</v>
+        <v>375.6296515563581</v>
       </c>
       <c r="N22" t="n">
-        <v>289.9553450721641</v>
+        <v>378.201584582734</v>
       </c>
       <c r="O22" t="n">
-        <v>386.2623990678389</v>
+        <v>386.2623990678387</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9804,13 +9804,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>158.2045317475398</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>118.2717723303429</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>158.2045317475399</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10272,16 +10272,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>263.871624324937</v>
       </c>
       <c r="N31" t="n">
-        <v>10.62967161639972</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>156.7304232042867</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10749,10 +10749,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>192.4544649334031</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>156.730423204287</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>156.730423204287</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.1582657371572</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371569</v>
+        <v>192.4544649334023</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>141.4680432173443</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>118.2717723303429</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
@@ -11466,16 +11466,16 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>265.3457328681895</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>30.60384299431996</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>55.57161293354659</v>
       </c>
       <c r="E2" t="n">
-        <v>5.141139873183477</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -22612,10 +22612,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22707,22 +22707,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>153.9049066562519</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22755,13 +22755,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22770,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>177.8543396621487</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306639</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>118.6997428106774</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>38.67748399664038</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -22950,16 +22950,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22998,19 +22998,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>222.8963721936119</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>53.64415899774488</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306639</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -23074,22 +23074,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>19.29199116509932</v>
+        <v>194.2053468630052</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.83779588133143</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="11">
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>47.60968125113078</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>13.54224091458377</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.21899079042302</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -23427,7 +23427,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.3301761740106</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>66.25854175648695</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23497,10 +23497,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>7.254829457195569</v>
+        <v>423.4025976022549</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -23509,7 +23509,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>396.0346945768795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>272.4217836655541</v>
@@ -23548,19 +23548,19 @@
         <v>52.07140607624191</v>
       </c>
       <c r="T14" t="n">
-        <v>211.9606135828359</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5221469772661</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>376.7330705712591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23658,22 +23658,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.3301761740106</v>
+        <v>73.17410650774393</v>
       </c>
       <c r="H16" t="n">
-        <v>133.122498409159</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.57375468953282</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>147.1022126635735</v>
       </c>
       <c r="T16" t="n">
-        <v>66.25854175648698</v>
+        <v>240.8348570146258</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.615660591221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23737,16 +23737,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.8455477352675</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>270.4846835738957</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.76122242300961</v>
+        <v>47.76122242300963</v>
       </c>
       <c r="T17" t="n">
         <v>211.1326232836796</v>
@@ -23791,16 +23791,16 @@
         <v>256.5070152299372</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>207.7608430687453</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>144.725542955954</v>
       </c>
     </row>
     <row r="18">
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.2453314124761</v>
@@ -23943,10 +23943,10 @@
         <v>145.6235998648307</v>
       </c>
       <c r="T19" t="n">
-        <v>77.45181323066824</v>
+        <v>24.88709843979765</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6110326951373</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>235.5145447301177</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.76122242300961</v>
+        <v>47.76122242300963</v>
       </c>
       <c r="T20" t="n">
         <v>211.1326232836796</v>
       </c>
       <c r="U20" t="n">
-        <v>97.33240969395223</v>
+        <v>256.5070152299372</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -24037,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>15.75995135773022</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.2453314124761</v>
       </c>
       <c r="H22" t="n">
         <v>132.3681513475155</v>
       </c>
       <c r="I22" t="n">
-        <v>67.022241315385</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>13.19244635441157</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>75.69250549294861</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -24274,7 +24274,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>87.47873862630769</v>
       </c>
     </row>
     <row r="24">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>113.7438090910206</v>
       </c>
       <c r="H25" t="n">
         <v>131.0206200144773</v>
@@ -24417,7 +24417,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>114.8692533779057</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>42.73835744761459</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>219.5693423016261</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>133.3808763442455</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>113.7438090910202</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>62.46433369811443</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>300.5332114785136</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>157.4702889230268</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>88.0625894297151</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>211.5117283456776</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>120.3970271724582</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24973,13 +24973,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>291.2528530245752</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>113.7438090910202</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>285.9536173888152</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25207,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>220.2228459176357</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>71.12121529005535</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>6.06512153675537</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>245.8919113014646</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>91.46177548867509</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
@@ -25456,7 +25456,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>36.43710439289026</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>249.4367335470099</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>13.42442768340305</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>24.96372669167991</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>113.7438090910202</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>54.98053830187007</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>32.23443698533146</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>56.59250992092784</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>68.52945523487023</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>361949.3395759429</v>
+        <v>361949.3395759428</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>343079.7970415471</v>
+        <v>343079.7970415468</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>395183.5020499054</v>
+        <v>395183.5020499055</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>395183.5020499055</v>
+        <v>395183.5020499054</v>
       </c>
     </row>
   </sheetData>
@@ -26334,7 +26334,7 @@
         <v>142066.492448555</v>
       </c>
       <c r="I2" t="n">
-        <v>165162.4498658581</v>
+        <v>165162.4498658582</v>
       </c>
       <c r="J2" t="n">
         <v>165162.4498658582</v>
@@ -26355,7 +26355,7 @@
         <v>165162.4498658582</v>
       </c>
       <c r="P2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>52888.83336114357</v>
+        <v>52888.83336114334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>91531.29353731006</v>
+        <v>91531.29353731022</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14318.55649377948</v>
+        <v>14318.55649377946</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>67821.54134458388</v>
       </c>
       <c r="E4" t="n">
-        <v>12957.96645713667</v>
+        <v>12957.96645713668</v>
       </c>
       <c r="F4" t="n">
         <v>12957.96645713667</v>
       </c>
       <c r="G4" t="n">
-        <v>11994.07452027093</v>
+        <v>11994.07452027094</v>
       </c>
       <c r="H4" t="n">
-        <v>11994.07452027093</v>
+        <v>11994.07452027094</v>
       </c>
       <c r="I4" t="n">
-        <v>10272.22173839659</v>
+        <v>10272.22173839658</v>
       </c>
       <c r="J4" t="n">
         <v>10272.22173839659</v>
@@ -26456,10 +26456,10 @@
         <v>10272.22173839659</v>
       </c>
       <c r="O4" t="n">
+        <v>10272.22173839658</v>
+      </c>
+      <c r="P4" t="n">
         <v>10272.22173839659</v>
-      </c>
-      <c r="P4" t="n">
-        <v>10272.22173839658</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722233</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722233</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722233</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="E5" t="n">
         <v>33113.33731766298</v>
@@ -26484,13 +26484,13 @@
         <v>33113.33731766298</v>
       </c>
       <c r="G5" t="n">
-        <v>37756.58838009404</v>
+        <v>37756.58838009401</v>
       </c>
       <c r="H5" t="n">
-        <v>37756.58838009404</v>
+        <v>37756.58838009402</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
         <v>46051.08120963782</v>
@@ -26505,7 +26505,7 @@
         <v>46051.08120963783</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143225.1757013389</v>
+        <v>-143964.5323132546</v>
       </c>
       <c r="C6" t="n">
-        <v>-1033.875041629057</v>
+        <v>-1773.231653544688</v>
       </c>
       <c r="D6" t="n">
-        <v>-1033.875041629057</v>
+        <v>-1773.231653544703</v>
       </c>
       <c r="E6" t="n">
-        <v>-186558.5078468214</v>
+        <v>-187283.9361834099</v>
       </c>
       <c r="F6" t="n">
-        <v>83066.0884840753</v>
+        <v>82340.66014748679</v>
       </c>
       <c r="G6" t="n">
-        <v>39426.9961870465</v>
+        <v>38763.13499421861</v>
       </c>
       <c r="H6" t="n">
-        <v>92315.82954819007</v>
+        <v>91651.96835536194</v>
       </c>
       <c r="I6" t="n">
-        <v>17307.85338051367</v>
+        <v>16753.9729372916</v>
       </c>
       <c r="J6" t="n">
-        <v>-2175.318427166407</v>
+        <v>-2729.19887038837</v>
       </c>
       <c r="K6" t="n">
-        <v>108839.1469178237</v>
+        <v>108285.2664746018</v>
       </c>
       <c r="L6" t="n">
-        <v>108839.1469178238</v>
+        <v>108285.2664746018</v>
       </c>
       <c r="M6" t="n">
-        <v>108839.1469178238</v>
+        <v>108285.2664746018</v>
       </c>
       <c r="N6" t="n">
-        <v>108839.1469178238</v>
+        <v>108285.2664746018</v>
       </c>
       <c r="O6" t="n">
-        <v>94520.59042404431</v>
+        <v>93966.70998082234</v>
       </c>
       <c r="P6" t="n">
-        <v>108839.1469178238</v>
+        <v>108285.2664746018</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>335.6031734147081</v>
       </c>
       <c r="G3" t="n">
-        <v>382.6534502656805</v>
+        <v>382.6534502656803</v>
       </c>
       <c r="H3" t="n">
-        <v>382.6534502656805</v>
+        <v>382.6534502656804</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932212</v>
@@ -26804,13 +26804,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="G4" t="n">
-        <v>483.7951178339177</v>
+        <v>483.7951178339175</v>
       </c>
       <c r="H4" t="n">
-        <v>483.7951178339177</v>
+        <v>483.7951178339175</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
         <v>590.0818943619342</v>
@@ -26825,7 +26825,7 @@
         <v>590.0818943619344</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619342</v>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47.05027685097244</v>
+        <v>47.05027685097224</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>84.04847782754064</v>
+        <v>84.04847782754081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>59.49926031381341</v>
+        <v>59.49926031381318</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2867765280165</v>
+        <v>106.2867765280166</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>59.49926031381329</v>
+        <v>59.49926031381318</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>59.49926031381341</v>
+        <v>59.49926031381318</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.538305327701227</v>
+        <v>1.538305327701226</v>
       </c>
       <c r="H17" t="n">
-        <v>15.7541694373202</v>
+        <v>15.75416943732019</v>
       </c>
       <c r="I17" t="n">
-        <v>59.30551614620162</v>
+        <v>59.30551614620158</v>
       </c>
       <c r="J17" t="n">
-        <v>130.5617418069822</v>
+        <v>130.5617418069821</v>
       </c>
       <c r="K17" t="n">
-        <v>195.6782063285751</v>
+        <v>195.678206328575</v>
       </c>
       <c r="L17" t="n">
-        <v>242.7561180012116</v>
+        <v>242.7561180012115</v>
       </c>
       <c r="M17" t="n">
-        <v>270.1129553727183</v>
+        <v>270.1129553727181</v>
       </c>
       <c r="N17" t="n">
-        <v>274.4836653850494</v>
+        <v>274.4836653850493</v>
       </c>
       <c r="O17" t="n">
-        <v>259.1871417827203</v>
+        <v>259.1871417827202</v>
       </c>
       <c r="P17" t="n">
-        <v>221.2102290050963</v>
+        <v>221.2102290050961</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.119669456796</v>
+        <v>166.1196694567959</v>
       </c>
       <c r="R17" t="n">
-        <v>96.63057204121229</v>
+        <v>96.63057204121223</v>
       </c>
       <c r="S17" t="n">
-        <v>35.05413265499175</v>
+        <v>35.05413265499173</v>
       </c>
       <c r="T17" t="n">
-        <v>6.733931572012125</v>
+        <v>6.733931572012121</v>
       </c>
       <c r="U17" t="n">
         <v>0.1230644262160981</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8230659118922186</v>
+        <v>0.823065911892218</v>
       </c>
       <c r="H18" t="n">
-        <v>7.949083938538006</v>
+        <v>7.949083938538002</v>
       </c>
       <c r="I18" t="n">
-        <v>28.33801494892068</v>
+        <v>28.33801494892067</v>
       </c>
       <c r="J18" t="n">
-        <v>77.76167898276439</v>
+        <v>77.76167898276435</v>
       </c>
       <c r="K18" t="n">
         <v>132.907095079543</v>
       </c>
       <c r="L18" t="n">
-        <v>178.709991088703</v>
+        <v>178.7099910887029</v>
       </c>
       <c r="M18" t="n">
-        <v>208.5461303947959</v>
+        <v>208.5461303947957</v>
       </c>
       <c r="N18" t="n">
-        <v>214.0657259179679</v>
+        <v>214.0657259179677</v>
       </c>
       <c r="O18" t="n">
-        <v>195.8283180807771</v>
+        <v>195.828318080777</v>
       </c>
       <c r="P18" t="n">
-        <v>157.1694897893132</v>
+        <v>157.1694897893131</v>
       </c>
       <c r="Q18" t="n">
-        <v>105.0636416653997</v>
+        <v>105.0636416653996</v>
       </c>
       <c r="R18" t="n">
-        <v>51.10228530151864</v>
+        <v>51.10228530151861</v>
       </c>
       <c r="S18" t="n">
-        <v>15.28808831957694</v>
+        <v>15.28808831957693</v>
       </c>
       <c r="T18" t="n">
-        <v>3.317533215039248</v>
+        <v>3.317533215039246</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05414907315080388</v>
+        <v>0.05414907315080384</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6900308119545058</v>
+        <v>0.6900308119545054</v>
       </c>
       <c r="H19" t="n">
-        <v>6.135001219013701</v>
+        <v>6.135001219013698</v>
       </c>
       <c r="I19" t="n">
-        <v>20.75110841768642</v>
+        <v>20.75110841768641</v>
       </c>
       <c r="J19" t="n">
-        <v>48.78517840518356</v>
+        <v>48.78517840518353</v>
       </c>
       <c r="K19" t="n">
-        <v>80.16903433435074</v>
+        <v>80.1690343343507</v>
       </c>
       <c r="L19" t="n">
         <v>102.5887627154908</v>
       </c>
       <c r="M19" t="n">
-        <v>108.1654662775595</v>
+        <v>108.1654662775594</v>
       </c>
       <c r="N19" t="n">
-        <v>105.5935332511837</v>
+        <v>105.5935332511836</v>
       </c>
       <c r="O19" t="n">
-        <v>97.53271876607873</v>
+        <v>97.53271876607867</v>
       </c>
       <c r="P19" t="n">
-        <v>83.45609020220674</v>
+        <v>83.4560902022067</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.78067099011776</v>
+        <v>57.78067099011773</v>
       </c>
       <c r="R19" t="n">
-        <v>31.02629450842714</v>
+        <v>31.02629450842712</v>
       </c>
       <c r="S19" t="n">
-        <v>12.02535515015261</v>
+        <v>12.0253551501526</v>
       </c>
       <c r="T19" t="n">
-        <v>2.94831346926016</v>
+        <v>2.948313469260158</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03763804428842763</v>
+        <v>0.03763804428842761</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.538305327701227</v>
+        <v>1.538305327701226</v>
       </c>
       <c r="H20" t="n">
-        <v>15.7541694373202</v>
+        <v>15.75416943732019</v>
       </c>
       <c r="I20" t="n">
-        <v>59.30551614620162</v>
+        <v>59.30551614620159</v>
       </c>
       <c r="J20" t="n">
-        <v>130.5617418069822</v>
+        <v>130.5617418069821</v>
       </c>
       <c r="K20" t="n">
-        <v>195.6782063285751</v>
+        <v>195.678206328575</v>
       </c>
       <c r="L20" t="n">
-        <v>242.7561180012116</v>
+        <v>242.7561180012115</v>
       </c>
       <c r="M20" t="n">
-        <v>270.1129553727183</v>
+        <v>270.1129553727181</v>
       </c>
       <c r="N20" t="n">
-        <v>274.4836653850494</v>
+        <v>274.4836653850493</v>
       </c>
       <c r="O20" t="n">
-        <v>259.1871417827203</v>
+        <v>259.1871417827202</v>
       </c>
       <c r="P20" t="n">
-        <v>221.2102290050963</v>
+        <v>221.2102290050962</v>
       </c>
       <c r="Q20" t="n">
-        <v>166.119669456796</v>
+        <v>166.1196694567959</v>
       </c>
       <c r="R20" t="n">
-        <v>96.63057204121229</v>
+        <v>96.63057204121225</v>
       </c>
       <c r="S20" t="n">
-        <v>35.05413265499175</v>
+        <v>35.05413265499173</v>
       </c>
       <c r="T20" t="n">
-        <v>6.733931572012125</v>
+        <v>6.733931572012122</v>
       </c>
       <c r="U20" t="n">
         <v>0.1230644262160981</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8230659118922186</v>
+        <v>0.8230659118922181</v>
       </c>
       <c r="H21" t="n">
-        <v>7.949083938538006</v>
+        <v>7.949083938538003</v>
       </c>
       <c r="I21" t="n">
-        <v>28.33801494892068</v>
+        <v>28.33801494892067</v>
       </c>
       <c r="J21" t="n">
-        <v>77.76167898276439</v>
+        <v>77.76167898276437</v>
       </c>
       <c r="K21" t="n">
         <v>132.907095079543</v>
       </c>
       <c r="L21" t="n">
-        <v>178.709991088703</v>
+        <v>178.7099910887029</v>
       </c>
       <c r="M21" t="n">
-        <v>208.5461303947959</v>
+        <v>208.5461303947958</v>
       </c>
       <c r="N21" t="n">
-        <v>214.0657259179679</v>
+        <v>214.0657259179677</v>
       </c>
       <c r="O21" t="n">
-        <v>195.8283180807771</v>
+        <v>195.828318080777</v>
       </c>
       <c r="P21" t="n">
-        <v>157.1694897893132</v>
+        <v>157.1694897893131</v>
       </c>
       <c r="Q21" t="n">
-        <v>105.0636416653997</v>
+        <v>105.0636416653996</v>
       </c>
       <c r="R21" t="n">
-        <v>51.10228530151864</v>
+        <v>51.10228530151862</v>
       </c>
       <c r="S21" t="n">
         <v>15.28808831957694</v>
       </c>
       <c r="T21" t="n">
-        <v>3.317533215039248</v>
+        <v>3.317533215039246</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05414907315080388</v>
+        <v>0.05414907315080385</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6900308119545058</v>
+        <v>0.6900308119545054</v>
       </c>
       <c r="H22" t="n">
-        <v>6.135001219013701</v>
+        <v>6.135001219013699</v>
       </c>
       <c r="I22" t="n">
-        <v>20.75110841768642</v>
+        <v>20.75110841768641</v>
       </c>
       <c r="J22" t="n">
-        <v>48.78517840518356</v>
+        <v>48.78517840518354</v>
       </c>
       <c r="K22" t="n">
-        <v>80.16903433435074</v>
+        <v>80.16903433435071</v>
       </c>
       <c r="L22" t="n">
         <v>102.5887627154908</v>
       </c>
       <c r="M22" t="n">
-        <v>108.1654662775595</v>
+        <v>108.1654662775594</v>
       </c>
       <c r="N22" t="n">
-        <v>105.5935332511837</v>
+        <v>105.5935332511836</v>
       </c>
       <c r="O22" t="n">
-        <v>97.53271876607873</v>
+        <v>97.53271876607869</v>
       </c>
       <c r="P22" t="n">
-        <v>83.45609020220674</v>
+        <v>83.45609020220671</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.78067099011776</v>
+        <v>57.78067099011773</v>
       </c>
       <c r="R22" t="n">
-        <v>31.02629450842714</v>
+        <v>31.02629450842712</v>
       </c>
       <c r="S22" t="n">
-        <v>12.02535515015261</v>
+        <v>12.0253551501526</v>
       </c>
       <c r="T22" t="n">
-        <v>2.94831346926016</v>
+        <v>2.948313469260159</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03763804428842763</v>
+        <v>0.03763804428842762</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34380,7 +34380,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
         <v>316.1166813548411</v>
@@ -34395,10 +34395,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,10 +34441,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -34453,7 +34453,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
@@ -34471,16 +34471,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,25 +34517,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998885</v>
@@ -34547,10 +34547,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
         <v>14.66668190417549</v>
@@ -34559,7 +34559,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.289898879841</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201042</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>151.6683048404232</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
@@ -34871,13 +34871,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798408</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>407.1525905495949</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,25 +35093,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>237.6484237362509</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35175,10 +35175,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.289898879841</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201042</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L9" t="n">
-        <v>358.9284720888812</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35333,22 +35333,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>151.6683048404232</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>223.4729892007681</v>
+      </c>
+      <c r="N10" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N10" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35421,7 +35421,7 @@
         <v>236.900425020524</v>
       </c>
       <c r="N11" t="n">
-        <v>240.7337215691251</v>
+        <v>240.7337215691252</v>
       </c>
       <c r="O11" t="n">
         <v>227.318026873075</v>
@@ -35430,7 +35430,7 @@
         <v>194.0106767477459</v>
       </c>
       <c r="Q11" t="n">
-        <v>145.6939384646737</v>
+        <v>145.6939384646735</v>
       </c>
       <c r="R11" t="n">
         <v>84.74907675180566</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>51.18057382505155</v>
+        <v>50.59173833354602</v>
       </c>
       <c r="J12" t="n">
-        <v>68.20026375968141</v>
+        <v>396.0369556447444</v>
       </c>
       <c r="K12" t="n">
         <v>116.565113543484</v>
@@ -35506,13 +35506,13 @@
         <v>171.7496730964874</v>
       </c>
       <c r="P12" t="n">
-        <v>251.2978283375212</v>
+        <v>137.8442543785807</v>
       </c>
       <c r="Q12" t="n">
-        <v>424.2958575201044</v>
+        <v>92.14523357605344</v>
       </c>
       <c r="R12" t="n">
-        <v>44.81885398923214</v>
+        <v>163.1751954986662</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>130.2408812037722</v>
+        <v>42.78665376469154</v>
       </c>
       <c r="K13" t="n">
-        <v>347.8454081721616</v>
+        <v>70.31161567606503</v>
       </c>
       <c r="L13" t="n">
-        <v>89.97466062334649</v>
+        <v>164.1760175488599</v>
       </c>
       <c r="M13" t="n">
-        <v>94.86566424901332</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N13" t="n">
-        <v>92.60997078835715</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O13" t="n">
-        <v>273.7165181146179</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P13" t="n">
-        <v>424.2115665691178</v>
+        <v>73.19450195261106</v>
       </c>
       <c r="Q13" t="n">
-        <v>220.5677709677748</v>
+        <v>50.67607918562089</v>
       </c>
       <c r="R13" t="n">
         <v>6.007722421746777</v>
@@ -35646,7 +35646,7 @@
         <v>51.60081105582553</v>
       </c>
       <c r="J14" t="n">
-        <v>114.5081400587199</v>
+        <v>114.5081400587201</v>
       </c>
       <c r="K14" t="n">
         <v>171.6180187748791</v>
@@ -35658,10 +35658,10 @@
         <v>236.900425020524</v>
       </c>
       <c r="N14" t="n">
-        <v>240.7337215691252</v>
+        <v>240.7337215691254</v>
       </c>
       <c r="O14" t="n">
-        <v>227.318026873075</v>
+        <v>227.3180268730748</v>
       </c>
       <c r="P14" t="n">
         <v>194.0106767477459</v>
@@ -35725,7 +35725,7 @@
         <v>51.18057382505155</v>
       </c>
       <c r="J15" t="n">
-        <v>395.4481201532388</v>
+        <v>158.8969096172739</v>
       </c>
       <c r="K15" t="n">
         <v>116.565113543484</v>
@@ -35737,7 +35737,7 @@
         <v>182.9037295110159</v>
       </c>
       <c r="N15" t="n">
-        <v>187.7446469841394</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O15" t="n">
         <v>171.7496730964874</v>
@@ -35807,25 +35807,25 @@
         <v>130.2408812037722</v>
       </c>
       <c r="K16" t="n">
-        <v>70.31161567606506</v>
+        <v>347.8454081721616</v>
       </c>
       <c r="L16" t="n">
         <v>89.97466062334649</v>
       </c>
       <c r="M16" t="n">
-        <v>411.042987006537</v>
+        <v>94.86566424901332</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>92.60997078835715</v>
       </c>
       <c r="O16" t="n">
-        <v>424.2958575201044</v>
+        <v>273.7165181146181</v>
       </c>
       <c r="P16" t="n">
-        <v>73.19450195261106</v>
+        <v>424.2115665691178</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.67607918562089</v>
+        <v>220.5677709677748</v>
       </c>
       <c r="R16" t="n">
         <v>6.007722421746777</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>58.89289466707022</v>
+        <v>58.89289466707019</v>
       </c>
       <c r="J17" t="n">
-        <v>130.5617418069822</v>
+        <v>130.5617418069824</v>
       </c>
       <c r="K17" t="n">
-        <v>195.6782063285751</v>
+        <v>195.678206328575</v>
       </c>
       <c r="L17" t="n">
         <v>242.7561180012115</v>
       </c>
       <c r="M17" t="n">
-        <v>270.1129553727183</v>
+        <v>270.1129553727181</v>
       </c>
       <c r="N17" t="n">
-        <v>274.4836653850493</v>
+        <v>274.4836653850492</v>
       </c>
       <c r="O17" t="n">
-        <v>259.1871417827206</v>
+        <v>259.1871417827203</v>
       </c>
       <c r="P17" t="n">
         <v>221.2102290050962</v>
@@ -35907,7 +35907,7 @@
         <v>166.1196694567959</v>
       </c>
       <c r="R17" t="n">
-        <v>96.63057204121219</v>
+        <v>96.63057204121196</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>54.6649575352415</v>
+        <v>54.66495753524148</v>
       </c>
       <c r="J18" t="n">
-        <v>77.76167898276439</v>
+        <v>235.6372871877851</v>
       </c>
       <c r="K18" t="n">
         <v>132.907095079543</v>
       </c>
       <c r="L18" t="n">
-        <v>178.709991088703</v>
+        <v>178.7099910887028</v>
       </c>
       <c r="M18" t="n">
-        <v>208.5461303947959</v>
+        <v>208.5461303947957</v>
       </c>
       <c r="N18" t="n">
-        <v>214.0657259179678</v>
+        <v>214.0657259179677</v>
       </c>
       <c r="O18" t="n">
-        <v>195.8283180807772</v>
+        <v>195.8283180807771</v>
       </c>
       <c r="P18" t="n">
-        <v>157.1694897893133</v>
+        <v>157.169489789313</v>
       </c>
       <c r="Q18" t="n">
-        <v>262.9392498704194</v>
+        <v>105.0636416653997</v>
       </c>
       <c r="R18" t="n">
         <v>169.4586268109526</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>48.78517840518356</v>
+        <v>48.78517840518352</v>
       </c>
       <c r="K19" t="n">
-        <v>80.16903433435073</v>
+        <v>80.1690343343507</v>
       </c>
       <c r="L19" t="n">
-        <v>184.2342149870746</v>
+        <v>102.5887627154907</v>
       </c>
       <c r="M19" t="n">
-        <v>483.7951178339177</v>
+        <v>108.1654662775594</v>
       </c>
       <c r="N19" t="n">
-        <v>483.7951178339177</v>
+        <v>420.1614652631988</v>
       </c>
       <c r="O19" t="n">
-        <v>483.7951178339176</v>
+        <v>483.7951178339175</v>
       </c>
       <c r="P19" t="n">
-        <v>83.45609020220672</v>
+        <v>434.4731548187135</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.78067099011787</v>
+        <v>227.6723627722715</v>
       </c>
       <c r="R19" t="n">
-        <v>9.822651426745299</v>
+        <v>9.822651426745281</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>58.89289466707022</v>
+        <v>58.89289466707019</v>
       </c>
       <c r="J20" t="n">
         <v>130.5617418069821</v>
       </c>
       <c r="K20" t="n">
-        <v>195.6782063285751</v>
+        <v>195.678206328575</v>
       </c>
       <c r="L20" t="n">
         <v>242.7561180012116</v>
       </c>
       <c r="M20" t="n">
-        <v>270.1129553727184</v>
+        <v>270.1129553727181</v>
       </c>
       <c r="N20" t="n">
-        <v>274.4836653850494</v>
+        <v>274.4836653850493</v>
       </c>
       <c r="O20" t="n">
-        <v>259.1871417827203</v>
+        <v>259.1871417827201</v>
       </c>
       <c r="P20" t="n">
         <v>221.2102290050962</v>
@@ -36144,7 +36144,7 @@
         <v>166.1196694567959</v>
       </c>
       <c r="R20" t="n">
-        <v>96.63057204121219</v>
+        <v>96.63057204121242</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>54.6649575352415</v>
+        <v>54.66495753524148</v>
       </c>
       <c r="J21" t="n">
-        <v>77.76167898276439</v>
+        <v>235.6372871877849</v>
       </c>
       <c r="K21" t="n">
         <v>132.907095079543</v>
       </c>
       <c r="L21" t="n">
-        <v>178.709991088703</v>
+        <v>178.7099910887029</v>
       </c>
       <c r="M21" t="n">
-        <v>208.5461303947959</v>
+        <v>208.5461303947958</v>
       </c>
       <c r="N21" t="n">
-        <v>214.0657259179678</v>
+        <v>214.0657259179677</v>
       </c>
       <c r="O21" t="n">
-        <v>195.8283180807772</v>
+        <v>195.8283180807771</v>
       </c>
       <c r="P21" t="n">
-        <v>157.1694897893133</v>
+        <v>157.169489789313</v>
       </c>
       <c r="Q21" t="n">
-        <v>262.9392498704194</v>
+        <v>105.0636416653997</v>
       </c>
       <c r="R21" t="n">
         <v>169.4586268109526</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>48.78517840518356</v>
+        <v>48.78517840518354</v>
       </c>
       <c r="K22" t="n">
-        <v>80.16903433435073</v>
+        <v>80.16903433435071</v>
       </c>
       <c r="L22" t="n">
-        <v>102.5887627154908</v>
+        <v>184.2342149870747</v>
       </c>
       <c r="M22" t="n">
-        <v>483.7951178339177</v>
+        <v>483.7951178339175</v>
       </c>
       <c r="N22" t="n">
-        <v>395.5488783233477</v>
+        <v>483.7951178339175</v>
       </c>
       <c r="O22" t="n">
-        <v>483.7951178339176</v>
+        <v>483.7951178339174</v>
       </c>
       <c r="P22" t="n">
         <v>83.45609020220672</v>
       </c>
       <c r="Q22" t="n">
-        <v>227.6723627722718</v>
+        <v>57.78067099011764</v>
       </c>
       <c r="R22" t="n">
-        <v>9.822651426745299</v>
+        <v>9.822651426745285</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -36518,7 +36518,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>547.5562458447062</v>
@@ -36527,10 +36527,10 @@
         <v>590.0818943619342</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>277.1599674523497</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
@@ -36755,25 +36755,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>216.0496516915127</v>
       </c>
       <c r="L28" t="n">
         <v>547.5562458447062</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320033</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
-        <v>228.6765228896165</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36837,7 +36837,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36992,16 +36992,16 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247772</v>
+        <v>395.7952529497143</v>
       </c>
       <c r="N31" t="n">
-        <v>139.4164512162881</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
@@ -37083,16 +37083,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>281.8524450409513</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
-        <v>542.8637682561043</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37305,7 +37305,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37314,7 +37314,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37323,7 +37323,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37405,10 +37405,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,22 +37469,22 @@
         <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>324.3780935581804</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>227.2024143463636</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37542,22 +37542,22 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062841</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
         <v>269.7982739184536</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>281.8524450409516</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619344</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37782,10 +37782,10 @@
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37861,13 +37861,13 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811313</v>
@@ -37876,7 +37876,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619341</v>
+        <v>324.3780935581794</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
-        <v>260.4234789221541</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38016,16 +38016,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38107,7 +38107,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742734</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116994</v>
+        <v>216.0496516915127</v>
       </c>
       <c r="L46" t="n">
         <v>547.5562458447062</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>384.3011685729996</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
